--- a/src/main/resources/templates/memberRoleTemplates.xlsx
+++ b/src/main/resources/templates/memberRoleTemplates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="18945" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="18945" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>登录名*</t>
     <rPh sb="0" eb="1">
@@ -151,6 +151,35 @@
     <rPh sb="2" eb="3">
       <t>bian ma</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请至第二页-用户表，填写信息</t>
+    <rPh sb="0" eb="1">
+      <t>qing</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di er ye</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>biao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tian x</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xix n</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -183,7 +212,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -230,15 +259,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -260,10 +280,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -546,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -557,14 +577,19 @@
     <col min="1" max="1" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.95" customHeight="1">
+    <row r="1" spans="1:6" ht="30.95" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:3" ht="24.95" customHeight="1">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" ht="24.95" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -574,8 +599,11 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -583,42 +611,63 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-    </row>
-    <row r="6" spans="1:3" ht="42" customHeight="1">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="42" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" ht="30.95" customHeight="1">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="30.95" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -630,7 +679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/templates/memberRoleTemplates.xlsx
+++ b/src/main/resources/templates/memberRoleTemplates.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idea_work_workspace\gitlab\framework-group\iam-service\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DYQ\tranning\choerodon-framework\iam-service\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B331FAF9-721B-422F-A796-04E5449CCD43}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="18945" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="18945" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
-    <sheet name="用户" sheetId="1" r:id="rId2"/>
+    <sheet name="角色" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>登录名*</t>
     <rPh sb="0" eb="1">
@@ -85,55 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户</t>
-    <rPh sb="0" eb="1">
-      <t>yong hu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成员类型</t>
-    <rPh sb="0" eb="1">
-      <t>cheng yuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>lei x</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名/说明</t>
-    <rPh sb="0" eb="1">
-      <t>biao ming</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ming</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>shuo m</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名对应成员类型规则</t>
-    <rPh sb="0" eb="1">
-      <t>biao ming</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ming</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>dui y</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>cheng yuan lei x</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>gui ze</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角色编码</t>
     <rPh sb="0" eb="1">
       <t>jue se</t>
@@ -154,7 +106,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请至第二页-用户表，填写信息</t>
+    <t>✓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请至第二页-角色表，填写信息</t>
     <rPh sb="0" eb="1">
       <t>qing</t>
     </rPh>
@@ -176,17 +132,13 @@
     <rPh sb="12" eb="13">
       <t>xix n</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -565,11 +517,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -584,7 +536,7 @@
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -597,7 +549,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -611,7 +563,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -633,32 +585,22 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="42" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -676,11 +618,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -690,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/templates/memberRoleTemplates.xlsx
+++ b/src/main/resources/templates/memberRoleTemplates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DYQ\tranning\choerodon-framework\iam-service\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B331FAF9-721B-422F-A796-04E5449CCD43}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDD6FD3-DB3D-4CB9-AB0C-5B7ED7FEDE94}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="18945" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,7 +164,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -187,37 +187,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -225,12 +199,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -521,7 +489,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -530,16 +498,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.95" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -551,9 +519,9 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -565,9 +533,9 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
@@ -575,39 +543,34 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" ht="42" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A6:B6"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F8"/>
   </mergeCells>
